--- a/data/trans_orig/IP16A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FADDA5E7-EBED-437F-987E-C816EC27ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A936D1B-313A-4A85-A6AC-27C61EF37048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{684EADFA-F750-410A-9D7A-E1C9610A6F59}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{81B84D84-D8AA-4138-9D64-4C3A46152414}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -133,6 +133,45 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -172,45 +211,6 @@
     <t>5,07%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
     <t>97,73%</t>
   </si>
   <si>
@@ -316,6 +316,48 @@
     <t>5,67%</t>
   </si>
   <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
     <t>95,86%</t>
   </si>
   <si>
@@ -361,48 +403,6 @@
     <t>4,88%</t>
   </si>
   <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
     <t>97,08%</t>
   </si>
   <si>
@@ -478,6 +478,36 @@
     <t>3,88%</t>
   </si>
   <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
     <t>87,44%</t>
   </si>
   <si>
@@ -518,36 +548,6 @@
   </si>
   <si>
     <t>6,51%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
   </si>
   <si>
     <t>98,11%</t>
@@ -987,7 +987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C566E5F4-E939-4B64-8871-6326FFCC906E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399578E0-56A6-4BE3-BD5D-0C2BC825CFEC}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1260,10 +1260,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7">
-        <v>54413</v>
+        <v>41095</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1275,10 +1275,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>43888</v>
+        <v>32176</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1290,10 +1290,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="N7" s="7">
-        <v>98301</v>
+        <v>73272</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1311,10 +1311,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>642</v>
+        <v>1295</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>793</v>
+        <v>527</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
@@ -1341,10 +1341,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>1435</v>
+        <v>1821</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1362,10 +1362,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1377,10 +1377,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1392,10 +1392,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1415,10 +1415,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>41095</v>
+        <v>54413</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>45</v>
@@ -1430,10 +1430,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>32176</v>
+        <v>43888</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>47</v>
@@ -1445,10 +1445,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="N10" s="7">
-        <v>73272</v>
+        <v>98301</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>49</v>
@@ -1466,10 +1466,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1295</v>
+        <v>642</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>51</v>
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>527</v>
+        <v>793</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>53</v>
@@ -1496,10 +1496,10 @@
         <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1821</v>
+        <v>1435</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>55</v>
@@ -1517,10 +1517,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1532,10 +1532,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1547,10 +1547,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1733,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B40B8C1-360A-48CF-9AFC-85B164975EAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8A2B50-AB3C-40DC-A280-563ACEC4EDAC}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D7" s="7">
-        <v>43987</v>
+        <v>65261</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>92</v>
@@ -2018,28 +2018,28 @@
         <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>74</v>
+      </c>
+      <c r="I7" s="7">
+        <v>53424</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H7" s="7">
-        <v>82</v>
-      </c>
-      <c r="I7" s="7">
-        <v>56891</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>95</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="N7" s="7">
-        <v>100878</v>
+        <v>118685</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>96</v>
@@ -2057,49 +2057,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1899</v>
+        <v>1416</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1730</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>4</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3146</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1899</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7">
-        <v>45886</v>
+        <v>66677</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2123,10 +2123,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I9" s="7">
-        <v>56891</v>
+        <v>55154</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2138,10 +2138,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="N9" s="7">
-        <v>102777</v>
+        <v>121831</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2161,49 +2161,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>65261</v>
+        <v>43987</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>82</v>
+      </c>
+      <c r="I10" s="7">
+        <v>56891</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="7">
-        <v>74</v>
-      </c>
-      <c r="I10" s="7">
-        <v>53424</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="7">
+        <v>146</v>
+      </c>
+      <c r="N10" s="7">
+        <v>100878</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>164</v>
-      </c>
-      <c r="N10" s="7">
-        <v>118685</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,40 +2212,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1416</v>
+        <v>1899</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>115</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>3146</v>
+        <v>1899</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>118</v>
@@ -2263,10 +2263,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7">
-        <v>66677</v>
+        <v>45886</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2278,10 +2278,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I12" s="7">
-        <v>55154</v>
+        <v>56891</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2293,10 +2293,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="N12" s="7">
-        <v>121831</v>
+        <v>102777</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2479,7 +2479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DD31C4-C923-47DE-99F0-50E6C102B542}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E832A207-F9B4-4DE4-B88D-1922A129599B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2657,7 +2657,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>142</v>
@@ -2752,31 +2752,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="7">
-        <v>47906</v>
+        <v>46696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7">
+        <v>79</v>
+      </c>
+      <c r="I7" s="7">
+        <v>52465</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="7">
-        <v>80</v>
-      </c>
-      <c r="I7" s="7">
-        <v>56475</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2785,16 +2785,16 @@
         <v>146</v>
       </c>
       <c r="N7" s="7">
-        <v>104381</v>
+        <v>99161</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,49 +2803,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2799</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>3339</v>
+        <v>564</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>50705</v>
+        <v>46696</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2869,10 +2869,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>57015</v>
+        <v>53029</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2884,10 +2884,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>107720</v>
+        <v>99725</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2907,31 +2907,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>46696</v>
+        <v>47906</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I10" s="7">
-        <v>52465</v>
+        <v>56475</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2940,16 +2940,16 @@
         <v>146</v>
       </c>
       <c r="N10" s="7">
-        <v>99161</v>
+        <v>104381</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,46 +2958,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>2799</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3339</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>564</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>169</v>
@@ -3009,10 +3009,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7">
-        <v>46696</v>
+        <v>50705</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3024,10 +3024,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" s="7">
-        <v>53029</v>
+        <v>57015</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3039,10 +3039,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N12" s="7">
-        <v>99725</v>
+        <v>107720</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3101,7 +3101,7 @@
         <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>177</v>
@@ -3155,7 +3155,7 @@
         <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A936D1B-313A-4A85-A6AC-27C61EF37048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78795CEC-D69C-4E73-8C8C-39ABD1316463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{81B84D84-D8AA-4138-9D64-4C3A46152414}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{07282647-148E-43B3-8CB0-AC9F9F2AA3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="222">
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -67,535 +67,643 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>93,56%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>94,85%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para los vómitos en 2012 (Tasa respuesta: 25,73%)</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para los vómitos en 2012 (Tasa respuesta: 25,73%)</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para los vómitos en 2015 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para los vómitos en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,33%</t>
+    <t>95,36%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>96,78%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
 </sst>
 </file>
@@ -606,7 +714,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -702,39 +810,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -786,7 +894,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -897,13 +1005,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -912,6 +1013,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -976,19 +1084,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399578E0-56A6-4BE3-BD5D-0C2BC825CFEC}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7608BDFA-6BF5-44E6-A439-91B9243430B6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1105,10 +1233,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>45139</v>
+        <v>1335</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1120,10 +1248,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>44044</v>
+        <v>1562</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1135,10 +1263,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>89182</v>
+        <v>2898</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1156,10 +1284,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7">
-        <v>1335</v>
+        <v>28320</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1171,10 +1299,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>3877</v>
+        <v>27473</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1186,10 +1314,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="N5" s="7">
-        <v>5213</v>
+        <v>55792</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1207,10 +1335,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>46474</v>
+        <v>29655</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1222,10 +1350,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>47921</v>
+        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1237,10 +1365,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>94395</v>
+        <v>58690</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1260,25 +1388,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>41095</v>
+        <v>647</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>32176</v>
+        <v>2315</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1287,22 +1415,22 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>73272</v>
+        <v>2962</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1311,49 +1439,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
-        <v>1295</v>
+        <v>50313</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="I8" s="7">
-        <v>527</v>
+        <v>40906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="N8" s="7">
-        <v>1821</v>
+        <v>91219</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1362,10 +1490,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>42390</v>
+        <v>50960</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1377,10 +1505,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>32703</v>
+        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1392,10 +1520,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>75093</v>
+        <v>94181</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1409,55 +1537,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>54413</v>
+        <v>647</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>43888</v>
+        <v>527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>98301</v>
+        <v>1174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1466,49 +1594,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>642</v>
+        <v>23219</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>793</v>
+        <v>21980</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="N11" s="7">
-        <v>1435</v>
+        <v>45199</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1517,10 +1645,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>55055</v>
+        <v>23866</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1532,10 +1660,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>44681</v>
+        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1547,10 +1675,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="N12" s="7">
-        <v>99736</v>
+        <v>46373</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1564,55 +1692,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>140647</v>
+        <v>642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>120108</v>
+        <v>793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
-        <v>391</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>260755</v>
+        <v>1435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1621,40 +1749,40 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>3272</v>
+        <v>38796</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I14" s="7">
-        <v>5197</v>
+        <v>29750</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="N14" s="7">
-        <v>8469</v>
+        <v>68546</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>72</v>
@@ -1663,7 +1791,7 @@
         <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1672,55 +1800,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>104</v>
+      </c>
+      <c r="N15" s="7">
+        <v>69981</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3272</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5197</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="7">
+        <v>14</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8469</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>210</v>
+      </c>
+      <c r="D17" s="7">
+        <v>140647</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="7">
+        <v>181</v>
+      </c>
+      <c r="I17" s="7">
+        <v>120108</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="7">
+        <v>391</v>
+      </c>
+      <c r="N17" s="7">
+        <v>260755</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>143919</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>190</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>125305</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>405</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>269224</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1733,8 +2022,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8A2B50-AB3C-40DC-A280-563ACEC4EDAC}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83DCD67-60AD-47AF-977D-5F2DECEE2A81}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1750,7 +2039,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1851,49 +2140,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>76648</v>
+        <v>2267</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="H4" s="7">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>73176</v>
+        <v>1771</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
-        <v>217</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>149824</v>
+        <v>4038</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,49 +2191,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>2267</v>
+        <v>49482</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="I5" s="7">
-        <v>1771</v>
+        <v>47085</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="N5" s="7">
-        <v>4038</v>
+        <v>96568</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,10 +2242,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="D6" s="7">
-        <v>78915</v>
+        <v>51749</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1968,10 +2257,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="I6" s="7">
-        <v>74947</v>
+        <v>48856</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1983,10 +2272,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="N6" s="7">
-        <v>153862</v>
+        <v>100606</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2006,49 +2295,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>65261</v>
+        <v>1416</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>53424</v>
+        <v>1730</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M7" s="7">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>118685</v>
+        <v>3146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,49 +2346,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D8" s="7">
-        <v>1416</v>
+        <v>73255</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="I8" s="7">
-        <v>1730</v>
+        <v>63517</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="N8" s="7">
-        <v>3146</v>
+        <v>136772</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,10 +2397,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7">
-        <v>66677</v>
+        <v>74671</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2123,10 +2412,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I9" s="7">
-        <v>55154</v>
+        <v>65247</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2138,10 +2427,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="N9" s="7">
-        <v>121831</v>
+        <v>139918</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2155,55 +2444,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>43987</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>56891</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>100878</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,49 +2501,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>1899</v>
+        <v>32494</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>37728</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="N11" s="7">
-        <v>1899</v>
+        <v>70223</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,10 +2552,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>45886</v>
+        <v>32494</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2278,10 +2567,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>56891</v>
+        <v>37728</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2293,10 +2582,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="N12" s="7">
-        <v>102777</v>
+        <v>70223</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2310,55 +2599,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>263</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>185896</v>
+        <v>1899</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>183491</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M13" s="7">
-        <v>527</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>369387</v>
+        <v>1899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,49 +2656,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>5582</v>
+        <v>30664</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
-        <v>3501</v>
+        <v>35161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>9083</v>
+        <v>65825</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,55 +2707,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7">
+        <v>32563</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>51</v>
+      </c>
+      <c r="I15" s="7">
+        <v>35161</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>99</v>
+      </c>
+      <c r="N15" s="7">
+        <v>67724</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5582</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3501</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" s="7">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9083</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>263</v>
+      </c>
+      <c r="D17" s="7">
+        <v>185896</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="7">
+        <v>264</v>
+      </c>
+      <c r="I17" s="7">
+        <v>183491</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" s="7">
+        <v>527</v>
+      </c>
+      <c r="N17" s="7">
+        <v>369387</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>271</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>191478</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>269</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>186992</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>540</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>378470</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2479,8 +2929,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E832A207-F9B4-4DE4-B88D-1922A129599B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD85440-BE6A-4E3A-A1BE-6D061E4C8D1D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2496,7 +2946,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2597,49 +3047,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>50724</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>51319</v>
+        <v>613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>102043</v>
+        <v>613</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,49 +3098,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>30918</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7">
-        <v>1173</v>
+        <v>30680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="N5" s="7">
-        <v>1173</v>
+        <v>61598</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,10 +3149,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D6" s="7">
-        <v>50724</v>
+        <v>30918</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2714,10 +3164,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I6" s="7">
-        <v>52492</v>
+        <v>31293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2729,10 +3179,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="N6" s="7">
-        <v>103216</v>
+        <v>62211</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2752,49 +3202,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>46696</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>52465</v>
+        <v>1124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>99161</v>
+        <v>1124</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,49 +3253,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>47366</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I8" s="7">
-        <v>564</v>
+        <v>49976</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="N8" s="7">
-        <v>564</v>
+        <v>97342</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,10 +3304,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9" s="7">
-        <v>46696</v>
+        <v>47366</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2869,10 +3319,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="7">
-        <v>53029</v>
+        <v>51100</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2884,10 +3334,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N9" s="7">
-        <v>99725</v>
+        <v>98466</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2901,55 +3351,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>47906</v>
+        <v>2799</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>56475</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>104381</v>
+        <v>2799</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,49 +3408,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>2799</v>
+        <v>40001</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="I11" s="7">
-        <v>540</v>
+        <v>43903</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="N11" s="7">
-        <v>3339</v>
+        <v>83904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,10 +3459,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D12" s="7">
-        <v>50705</v>
+        <v>42800</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3024,10 +3474,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>57015</v>
+        <v>43903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3039,10 +3489,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>107720</v>
+        <v>86703</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3056,55 +3506,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>145326</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>160259</v>
+        <v>540</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
-        <v>452</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>305586</v>
+        <v>540</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,49 +3563,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>2799</v>
+        <v>27041</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
-        <v>2277</v>
+        <v>35699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="N14" s="7">
-        <v>5075</v>
+        <v>62741</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,55 +3614,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27041</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>52</v>
+      </c>
+      <c r="I15" s="7">
+        <v>36239</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>89</v>
+      </c>
+      <c r="N15" s="7">
+        <v>63281</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2799</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2277</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M16" s="7">
+        <v>8</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5075</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>211</v>
+      </c>
+      <c r="D17" s="7">
+        <v>145326</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="F17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H17" s="7">
+        <v>241</v>
+      </c>
+      <c r="I17" s="7">
+        <v>160259</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M17" s="7">
+        <v>452</v>
+      </c>
+      <c r="N17" s="7">
+        <v>305586</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>215</v>
+      </c>
+      <c r="D18" s="7">
         <v>148125</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>245</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>162536</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>460</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>310661</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A09-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78795CEC-D69C-4E73-8C8C-39ABD1316463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60FAE92-ED7A-4857-827E-0E2F320147C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{07282647-148E-43B3-8CB0-AC9F9F2AA3D6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83273521-0995-4D02-8C34-3BEC2255CD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="218">
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -79,148 +79,148 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>89,11%</t>
+    <t>89,05%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>91,24%</t>
+    <t>91,16%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -229,85 +229,85 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>8,34%</t>
+    <t>8,23%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>12,93%</t>
+    <t>13,66%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>6,83%</t>
+    <t>7,3%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>91,66%</t>
+    <t>91,77%</t>
   </si>
   <si>
     <t>97,4%</t>
   </si>
   <si>
-    <t>87,07%</t>
+    <t>86,34%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>93,17%</t>
+    <t>92,7%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -322,31 +322,31 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>11,73%</t>
+    <t>11,09%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
   </si>
   <si>
     <t>95,62%</t>
   </si>
   <si>
-    <t>88,27%</t>
+    <t>88,91%</t>
   </si>
   <si>
     <t>98,79%</t>
@@ -355,61 +355,61 @@
     <t>96,38%</t>
   </si>
   <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>6,57%</t>
+    <t>5,87%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>9,0%</t>
+    <t>8,16%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>98,1%</t>
   </si>
   <si>
-    <t>93,43%</t>
+    <t>94,13%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>91,0%</t>
+    <t>91,84%</t>
   </si>
   <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>0%</t>
@@ -436,10 +436,10 @@
     <t>5,83%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -448,19 +448,16 @@
     <t>2,8%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>0,91%</t>
   </si>
   <si>
     <t>94,17%</t>
   </si>
   <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>96,32%</t>
@@ -469,67 +466,58 @@
     <t>97,2%</t>
   </si>
   <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>99,09%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para los vómitos en 2015 (Tasa respuesta: 21,64%)</t>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para los vómitos en 2016 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -538,13 +526,13 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>9,98%</t>
+    <t>12,54%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,54%</t>
+    <t>5,0%</t>
   </si>
   <si>
     <t>96,1%</t>
@@ -553,13 +541,13 @@
     <t>98,04%</t>
   </si>
   <si>
-    <t>90,02%</t>
+    <t>87,46%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,46%</t>
+    <t>95,0%</t>
   </si>
   <si>
     <t>2,7%</t>
@@ -568,13 +556,13 @@
     <t>2,2%</t>
   </si>
   <si>
-    <t>6,74%</t>
+    <t>7,84%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>3,94%</t>
+    <t>4,05%</t>
   </si>
   <si>
     <t>97,3%</t>
@@ -583,13 +571,13 @@
     <t>97,8%</t>
   </si>
   <si>
-    <t>93,26%</t>
+    <t>92,16%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>96,06%</t>
+    <t>95,95%</t>
   </si>
   <si>
     <t>6,54%</t>
@@ -598,7 +586,7 @@
     <t>1,65%</t>
   </si>
   <si>
-    <t>15,05%</t>
+    <t>14,98%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -610,13 +598,13 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>8,06%</t>
+    <t>8,01%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>84,95%</t>
+    <t>85,02%</t>
   </si>
   <si>
     <t>98,35%</t>
@@ -628,7 +616,7 @@
     <t>96,77%</t>
   </si>
   <si>
-    <t>91,94%</t>
+    <t>91,99%</t>
   </si>
   <si>
     <t>99,19%</t>
@@ -640,13 +628,13 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>7,2%</t>
+    <t>7,48%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>4,4%</t>
+    <t>4,92%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -655,31 +643,31 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>92,8%</t>
+    <t>92,52%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>95,6%</t>
+    <t>95,08%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
   </si>
   <si>
     <t>3,12%</t>
@@ -688,13 +676,13 @@
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -703,7 +691,7 @@
     <t>96,88%</t>
   </si>
   <si>
-    <t>99,24%</t>
+    <t>99,27%</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7608BDFA-6BF5-44E6-A439-91B9243430B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2711FF06-2A24-4C78-976E-A48FC2E3D15B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2022,7 +2010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83DCD67-60AD-47AF-977D-5F2DECEE2A81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA2C917-5C7B-4A95-A02C-D309A4B12C23}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2647,7 +2635,7 @@
         <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,13 +2650,13 @@
         <v>30664</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -2680,7 +2668,7 @@
         <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -2692,13 +2680,13 @@
         <v>65825</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2754,13 @@
         <v>5582</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2781,13 +2769,13 @@
         <v>3501</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -2796,13 +2784,13 @@
         <v>9083</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2805,13 @@
         <v>185896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>264</v>
@@ -2832,13 +2820,13 @@
         <v>183491</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>527</v>
@@ -2847,13 +2835,13 @@
         <v>369387</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,7 +2917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD85440-BE6A-4E3A-A1BE-6D061E4C8D1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575E76AB-575F-49B7-8870-E82D7FA861F4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2946,7 +2934,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3059,7 +3047,7 @@
         <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3068,13 +3056,13 @@
         <v>613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3083,13 +3071,13 @@
         <v>613</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,7 +3095,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3119,10 +3107,10 @@
         <v>30680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3134,10 +3122,10 @@
         <v>61598</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -3214,7 +3202,7 @@
         <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3223,13 +3211,13 @@
         <v>1124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3238,13 +3226,13 @@
         <v>1124</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,7 +3250,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -3274,10 +3262,10 @@
         <v>49976</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -3289,10 +3277,10 @@
         <v>97342</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>23</v>
@@ -3363,13 +3351,13 @@
         <v>2799</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3384,7 +3372,7 @@
         <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3393,13 +3381,13 @@
         <v>2799</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3402,13 @@
         <v>40001</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>63</v>
@@ -3432,7 +3420,7 @@
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3444,13 +3432,13 @@
         <v>83904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,7 +3512,7 @@
         <v>124</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3533,13 +3521,13 @@
         <v>540</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3548,13 +3536,13 @@
         <v>540</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,7 +3560,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -3584,10 +3572,10 @@
         <v>35699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -3599,10 +3587,10 @@
         <v>62741</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>23</v>
@@ -3673,13 +3661,13 @@
         <v>2799</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3688,13 +3676,13 @@
         <v>2277</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3706,10 +3694,10 @@
         <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3712,13 @@
         <v>145326</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>241</v>
@@ -3739,13 +3727,13 @@
         <v>160259</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>452</v>
@@ -3757,10 +3745,10 @@
         <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60FAE92-ED7A-4857-827E-0E2F320147C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63779980-7CF4-46D8-8919-A3820E234DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83273521-0995-4D02-8C34-3BEC2255CD5B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0C4473CB-4CE7-4562-892A-C2DFDD651068}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="220">
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,61 +73,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
     <t>4,5%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>13,62%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>86,1%</t>
+    <t>86,38%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
     <t>95,06%</t>
   </si>
   <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,562 +136,568 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para los vómitos en 2012 (Tasa respuesta: 25,73%)</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para los vómitos en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para los vómitos en 2012 (Tasa respuesta: 25,73%)</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para los vómitos en 2016 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2711FF06-2A24-4C78-976E-A48FC2E3D15B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F735A3-62F5-4010-9E3C-BADF958726EA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1221,10 +1227,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1335</v>
+        <v>1562</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1236,10 +1242,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1562</v>
+        <v>1335</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1272,10 +1278,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>28320</v>
+        <v>27473</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1287,10 +1293,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>27473</v>
+        <v>28320</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1323,25 +1329,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29035</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>44</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>29655</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1376,31 +1382,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>647</v>
+        <v>2315</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>2315</v>
+        <v>647</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>36</v>
@@ -1427,10 +1433,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7">
-        <v>50313</v>
+        <v>40906</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1439,22 +1445,22 @@
         <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I8" s="7">
-        <v>40906</v>
+        <v>50313</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>137</v>
@@ -1478,25 +1484,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>76</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>50960</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1534,13 +1540,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>647</v>
+        <v>527</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>50</v>
@@ -1549,13 +1555,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>527</v>
+        <v>647</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>52</v>
@@ -1570,7 +1576,7 @@
         <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>54</v>
@@ -1582,10 +1588,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>23219</v>
+        <v>21980</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -1594,13 +1600,13 @@
         <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>21980</v>
+        <v>23219</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>57</v>
@@ -1609,7 +1615,7 @@
         <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -1624,7 +1630,7 @@
         <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,25 +1639,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>36</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23866</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1689,13 +1695,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>642</v>
+        <v>793</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>63</v>
@@ -1704,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>793</v>
+        <v>642</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>65</v>
@@ -1725,7 +1731,7 @@
         <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>67</v>
@@ -1737,10 +1743,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>38796</v>
+        <v>29750</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>68</v>
@@ -1749,13 +1755,13 @@
         <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I14" s="7">
-        <v>29750</v>
+        <v>38796</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>70</v>
@@ -1764,7 +1770,7 @@
         <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
@@ -1779,7 +1785,7 @@
         <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,25 +1794,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>59</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>39438</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30543</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1841,10 +1847,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>3272</v>
+        <v>5197</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
@@ -1856,10 +1862,10 @@
         <v>76</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>5197</v>
+        <v>3272</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>77</v>
@@ -1883,7 +1889,7 @@
         <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,34 +1898,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>181</v>
+      </c>
+      <c r="D17" s="7">
+        <v>120108</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="7">
         <v>210</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>140647</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="7">
-        <v>181</v>
-      </c>
-      <c r="I17" s="7">
-        <v>120108</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>391</v>
@@ -1931,10 +1937,10 @@
         <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,25 +1949,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>190</v>
+      </c>
+      <c r="D18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1990,7 +1996,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +2016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA2C917-5C7B-4A95-A02C-D309A4B12C23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621E0FDE-C96F-440B-B64F-A56EF4DB503B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2027,7 +2033,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2131,31 +2137,31 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2267</v>
+        <v>1771</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1771</v>
+        <v>2267</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2164,13 +2170,13 @@
         <v>4038</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,49 +2185,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>69</v>
+      </c>
+      <c r="D5" s="7">
+        <v>47085</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="7">
         <v>70</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>49482</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="7">
-        <v>69</v>
-      </c>
-      <c r="I5" s="7">
-        <v>47085</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M5" s="7">
         <v>139</v>
       </c>
       <c r="N5" s="7">
-        <v>96568</v>
+        <v>96567</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,25 +2236,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>72</v>
+      </c>
+      <c r="D6" s="7">
+        <v>48856</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>73</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>51749</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>72</v>
-      </c>
-      <c r="I6" s="7">
-        <v>48856</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2263,7 +2269,7 @@
         <v>145</v>
       </c>
       <c r="N6" s="7">
-        <v>100606</v>
+        <v>100605</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2286,31 +2292,31 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1416</v>
+        <v>1730</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1730</v>
+        <v>1416</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2319,13 +2325,13 @@
         <v>3146</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,34 +2340,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>91</v>
+      </c>
+      <c r="D8" s="7">
+        <v>63517</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
         <v>102</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>73255</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>91</v>
-      </c>
-      <c r="I8" s="7">
-        <v>63517</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>193</v>
@@ -2370,13 +2376,13 @@
         <v>136772</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,25 +2391,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>93</v>
+      </c>
+      <c r="D9" s="7">
+        <v>65247</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>104</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>74671</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>93</v>
-      </c>
-      <c r="I9" s="7">
-        <v>65247</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2444,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2459,13 +2465,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2474,13 +2480,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,31 +2495,31 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7">
+        <v>37728</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7">
         <v>46</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>32494</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="7">
-        <v>53</v>
-      </c>
-      <c r="I11" s="7">
-        <v>37728</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -2525,10 +2531,10 @@
         <v>70223</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -2540,25 +2546,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37728</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>46</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>32494</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
-      <c r="I12" s="7">
-        <v>37728</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2593,34 +2599,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1899</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2629,13 +2635,13 @@
         <v>1899</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,34 +2650,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>51</v>
+      </c>
+      <c r="D14" s="7">
+        <v>35161</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="7">
         <v>45</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>30664</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="H14" s="7">
-        <v>51</v>
-      </c>
-      <c r="I14" s="7">
-        <v>35161</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -2680,10 +2686,10 @@
         <v>65825</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>142</v>
@@ -2695,25 +2701,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7">
+        <v>35161</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>48</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>32563</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>51</v>
-      </c>
-      <c r="I15" s="7">
-        <v>35161</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2748,10 +2754,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>5582</v>
+        <v>3501</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>143</v>
@@ -2760,16 +2766,16 @@
         <v>144</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5582</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3501</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>146</v>
@@ -2799,28 +2805,28 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" s="7">
-        <v>185896</v>
+        <v>183491</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>263</v>
+      </c>
+      <c r="I17" s="7">
+        <v>185896</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="H17" s="7">
-        <v>264</v>
-      </c>
-      <c r="I17" s="7">
-        <v>183491</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>154</v>
@@ -2850,25 +2856,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>269</v>
+      </c>
+      <c r="D18" s="7">
+        <v>186992</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>271</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>191478</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>269</v>
-      </c>
-      <c r="I18" s="7">
-        <v>186992</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2897,7 +2903,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2917,7 +2923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575E76AB-575F-49B7-8870-E82D7FA861F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC85DD5-16B6-4A20-80B0-E09E17615B35}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3035,31 +3041,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>613</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>613</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>162</v>
@@ -3074,7 +3080,7 @@
         <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>164</v>
@@ -3086,34 +3092,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>50</v>
+      </c>
+      <c r="D5" s="7">
+        <v>30680</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7">
         <v>48</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>30918</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7">
-        <v>50</v>
-      </c>
-      <c r="I5" s="7">
-        <v>30680</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M5" s="7">
         <v>98</v>
@@ -3128,7 +3134,7 @@
         <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,25 +3143,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>51</v>
+      </c>
+      <c r="D6" s="7">
+        <v>31293</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>48</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>30918</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7">
-        <v>31293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3190,31 +3196,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1124</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1124</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>172</v>
@@ -3229,7 +3235,7 @@
         <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>174</v>
@@ -3241,34 +3247,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>77</v>
+      </c>
+      <c r="D8" s="7">
+        <v>49976</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
         <v>70</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>47366</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="7">
-        <v>77</v>
-      </c>
-      <c r="I8" s="7">
-        <v>49976</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>147</v>
@@ -3283,7 +3289,7 @@
         <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,25 +3298,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>79</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51100</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>70</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47366</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>79</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51100</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3345,31 +3351,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2799</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>183</v>
@@ -3396,34 +3402,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>63</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43903</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7">
         <v>56</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>40001</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H11" s="7">
-        <v>63</v>
-      </c>
-      <c r="I11" s="7">
-        <v>43903</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>119</v>
@@ -3447,25 +3453,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>63</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43903</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>60</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>42800</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>63</v>
-      </c>
-      <c r="I12" s="7">
-        <v>43903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3500,31 +3506,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>540</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>540</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>196</v>
@@ -3539,7 +3545,7 @@
         <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>198</v>
@@ -3551,34 +3557,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>51</v>
+      </c>
+      <c r="D14" s="7">
+        <v>35699</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="7">
         <v>37</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>27041</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="7">
-        <v>51</v>
-      </c>
-      <c r="I14" s="7">
-        <v>35699</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -3593,7 +3599,7 @@
         <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,25 +3608,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>52</v>
+      </c>
+      <c r="D15" s="7">
+        <v>36239</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>27041</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>52</v>
-      </c>
-      <c r="I15" s="7">
-        <v>36239</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3658,7 +3664,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2799</v>
+        <v>2277</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>204</v>
@@ -3673,16 +3679,16 @@
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2277</v>
+        <v>2799</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3691,13 +3697,13 @@
         <v>5075</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,34 +3712,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>241</v>
+      </c>
+      <c r="D17" s="7">
+        <v>160259</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="7">
         <v>211</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>145326</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" s="7">
-        <v>241</v>
-      </c>
-      <c r="I17" s="7">
-        <v>160259</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>452</v>
@@ -3742,13 +3748,13 @@
         <v>305586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,25 +3763,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>245</v>
+      </c>
+      <c r="D18" s="7">
+        <v>162536</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>148125</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>245</v>
-      </c>
-      <c r="I18" s="7">
-        <v>162536</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3804,7 +3810,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
